--- a/Team-Data/2013-14/11-10-2013-14.xlsx
+++ b/Team-Data/2013-14/11-10-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -756,19 +823,19 @@
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM2" t="n">
         <v>11</v>
@@ -789,7 +856,7 @@
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT2" t="n">
         <v>24</v>
@@ -801,13 +868,13 @@
         <v>2</v>
       </c>
       <c r="AW2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -816,10 +883,10 @@
         <v>9</v>
       </c>
       <c r="BB2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -926,22 +993,22 @@
         <v>-2.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="n">
         <v>24</v>
@@ -962,7 +1029,7 @@
         <v>20</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ3" t="n">
         <v>10</v>
@@ -1001,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -1108,22 +1175,22 @@
         <v>-2.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH4" t="n">
         <v>5</v>
       </c>
       <c r="AI4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>22</v>
@@ -1132,10 +1199,10 @@
         <v>14</v>
       </c>
       <c r="AL4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
         <v>16</v>
@@ -1147,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1156,7 +1223,7 @@
         <v>14</v>
       </c>
       <c r="AT4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU4" t="n">
         <v>13</v>
@@ -1183,7 +1250,7 @@
         <v>18</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1302,7 +1369,7 @@
         <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1311,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="AK5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
         <v>30</v>
@@ -1356,7 +1423,7 @@
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
         <v>22</v>
@@ -1481,10 +1548,10 @@
         <v>7</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
         <v>27</v>
@@ -1493,7 +1560,7 @@
         <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1502,25 +1569,25 @@
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
         <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU6" t="n">
         <v>12</v>
@@ -1535,10 +1602,10 @@
         <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="n">
         <v>14</v>
@@ -1547,7 +1614,7 @@
         <v>28</v>
       </c>
       <c r="BC6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -1654,31 +1721,31 @@
         <v>-4.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
         <v>16</v>
@@ -1687,16 +1754,16 @@
         <v>18</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS7" t="n">
         <v>15</v>
@@ -1708,10 +1775,10 @@
         <v>20</v>
       </c>
       <c r="AV7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX7" t="n">
         <v>16</v>
@@ -1720,10 +1787,10 @@
         <v>22</v>
       </c>
       <c r="AZ7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>2.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF8" t="n">
         <v>7</v>
@@ -1848,7 +1915,7 @@
         <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1872,7 +1939,7 @@
         <v>8</v>
       </c>
       <c r="AP8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
@@ -1887,19 +1954,19 @@
         <v>15</v>
       </c>
       <c r="AU8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
         <v>15</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ8" t="n">
         <v>10</v>
@@ -1911,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -2018,25 +2085,25 @@
         <v>-6.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
         <v>28</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AG9" t="n">
         <v>28</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
         <v>24</v>
@@ -2063,7 +2130,7 @@
         <v>15</v>
       </c>
       <c r="AS9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT9" t="n">
         <v>8</v>
@@ -2081,16 +2148,16 @@
         <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA9" t="n">
         <v>7</v>
       </c>
       <c r="BB9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC9" t="n">
         <v>27</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>0.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2209,22 +2276,22 @@
         <v>7</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
         <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM10" t="n">
         <v>10</v>
@@ -2239,28 +2306,28 @@
         <v>6</v>
       </c>
       <c r="AQ10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR10" t="n">
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT10" t="n">
         <v>18</v>
       </c>
       <c r="AU10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
         <v>21</v>
       </c>
       <c r="AW10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
@@ -2275,7 +2342,7 @@
         <v>12</v>
       </c>
       <c r="BC10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>6.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2394,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
         <v>9</v>
@@ -2421,7 +2488,7 @@
         <v>27</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR11" t="n">
         <v>29</v>
@@ -2454,10 +2521,10 @@
         <v>17</v>
       </c>
       <c r="BB11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>2</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF12" t="n">
         <v>7</v>
@@ -2576,10 +2643,10 @@
         <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
         <v>29</v>
@@ -2588,22 +2655,22 @@
         <v>5</v>
       </c>
       <c r="AL12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM12" t="n">
         <v>5</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR12" t="n">
         <v>15</v>
@@ -2612,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
         <v>26</v>
@@ -2624,10 +2691,10 @@
         <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>10</v>
@@ -2636,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>9.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2770,7 +2837,7 @@
         <v>12</v>
       </c>
       <c r="AL13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2785,19 +2852,19 @@
         <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR13" t="n">
         <v>25</v>
       </c>
       <c r="AS13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT13" t="n">
         <v>10</v>
       </c>
       <c r="AU13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV13" t="n">
         <v>20</v>
@@ -2809,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="AY13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ13" t="n">
         <v>3</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>3.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
@@ -2940,13 +3007,13 @@
         <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI14" t="n">
         <v>2</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2958,7 +3025,7 @@
         <v>4</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2976,22 +3043,22 @@
         <v>20</v>
       </c>
       <c r="AT14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AX14" t="n">
         <v>16</v>
       </c>
       <c r="AY14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ14" t="n">
         <v>30</v>
@@ -3003,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>0.375</v>
+        <v>0.429</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J15" t="n">
-        <v>88.09999999999999</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.406</v>
+        <v>0.409</v>
       </c>
       <c r="L15" t="n">
         <v>10.4</v>
@@ -3062,52 +3129,52 @@
         <v>26.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.395</v>
+        <v>0.397</v>
       </c>
       <c r="O15" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="P15" t="n">
-        <v>22</v>
+        <v>22.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.699</v>
+        <v>0.715</v>
       </c>
       <c r="R15" t="n">
-        <v>11.4</v>
+        <v>10.7</v>
       </c>
       <c r="S15" t="n">
-        <v>34.4</v>
+        <v>35</v>
       </c>
       <c r="T15" t="n">
-        <v>45.8</v>
+        <v>45.7</v>
       </c>
       <c r="U15" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="V15" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="W15" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="X15" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="Y15" t="n">
         <v>4.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.3</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>97.3</v>
+        <v>98.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-9.300000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -3116,22 +3183,22 @@
         <v>13</v>
       </c>
       <c r="AF15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK15" t="n">
         <v>28</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>29</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
@@ -3143,49 +3210,49 @@
         <v>9</v>
       </c>
       <c r="AO15" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV15" t="n">
         <v>13</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>14</v>
       </c>
       <c r="AW15" t="n">
         <v>27</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>14</v>
       </c>
-      <c r="AZ15" t="n">
-        <v>12</v>
-      </c>
       <c r="BA15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BB15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BC15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-1</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3322,16 +3389,16 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>16</v>
       </c>
       <c r="AP16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR16" t="n">
         <v>23</v>
@@ -3352,22 +3419,22 @@
         <v>23</v>
       </c>
       <c r="AX16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
         <v>18</v>
       </c>
       <c r="BB16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>4.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF17" t="n">
         <v>7</v>
@@ -3486,7 +3553,7 @@
         <v>7</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
         <v>10</v>
@@ -3534,22 +3601,22 @@
         <v>20</v>
       </c>
       <c r="AX17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-2</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>22</v>
@@ -3665,10 +3732,10 @@
         <v>7</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
         <v>26</v>
@@ -3677,13 +3744,13 @@
         <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="n">
         <v>10</v>
       </c>
       <c r="AM18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN18" t="n">
         <v>2</v>
@@ -3692,10 +3759,10 @@
         <v>19</v>
       </c>
       <c r="AP18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
         <v>24</v>
@@ -3704,7 +3771,7 @@
         <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU18" t="n">
         <v>17</v>
@@ -3716,13 +3783,13 @@
         <v>22</v>
       </c>
       <c r="AX18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ18" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -3760,85 +3827,85 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>0.714</v>
+        <v>0.667</v>
       </c>
       <c r="H19" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I19" t="n">
-        <v>37.6</v>
+        <v>36.5</v>
       </c>
       <c r="J19" t="n">
-        <v>88.40000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.425</v>
+        <v>0.414</v>
       </c>
       <c r="L19" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="M19" t="n">
-        <v>22.3</v>
+        <v>22.7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.34</v>
+        <v>0.316</v>
       </c>
       <c r="O19" t="n">
-        <v>23.4</v>
+        <v>24.8</v>
       </c>
       <c r="P19" t="n">
-        <v>29.3</v>
+        <v>31</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.8</v>
+        <v>0.801</v>
       </c>
       <c r="R19" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S19" t="n">
-        <v>33.3</v>
+        <v>32</v>
       </c>
       <c r="T19" t="n">
-        <v>45.1</v>
+        <v>43.8</v>
       </c>
       <c r="U19" t="n">
-        <v>24.1</v>
+        <v>23.3</v>
       </c>
       <c r="V19" t="n">
-        <v>16.7</v>
+        <v>16</v>
       </c>
       <c r="W19" t="n">
-        <v>10.6</v>
+        <v>10</v>
       </c>
       <c r="X19" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.1</v>
+        <v>17.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>24.7</v>
+        <v>26.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.1</v>
+        <v>105</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.1</v>
+        <v>4.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
         <v>3</v>
@@ -3850,25 +3917,25 @@
         <v>4</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI19" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN19" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3880,25 +3947,25 @@
         <v>5</v>
       </c>
       <c r="AR19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS19" t="n">
         <v>11</v>
       </c>
       <c r="AT19" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AW19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY19" t="n">
         <v>30</v>
@@ -3907,13 +3974,13 @@
         <v>1</v>
       </c>
       <c r="BA19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC19" t="n">
         <v>3</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>2</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -3942,106 +4009,106 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>0.429</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>36.4</v>
+        <v>36</v>
       </c>
       <c r="J20" t="n">
-        <v>84.3</v>
+        <v>83.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
       <c r="L20" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="M20" t="n">
         <v>12.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.438</v>
+        <v>0.461</v>
       </c>
       <c r="O20" t="n">
-        <v>17.6</v>
+        <v>18.5</v>
       </c>
       <c r="P20" t="n">
-        <v>21.4</v>
+        <v>22.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="S20" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="T20" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U20" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="V20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="X20" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD20" t="n">
         <v>14</v>
-      </c>
-      <c r="W20" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="X20" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>96</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>2</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AK20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
         <v>24</v>
@@ -4053,49 +4120,49 @@
         <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AQ20" t="n">
         <v>4</v>
       </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT20" t="n">
         <v>16</v>
       </c>
       <c r="AU20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
         <v>2</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AZ20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -4124,115 +4191,115 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>0.333</v>
+        <v>0.4</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>35.8</v>
+        <v>36.8</v>
       </c>
       <c r="J21" t="n">
-        <v>83.3</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="L21" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.324</v>
+        <v>0.333</v>
       </c>
       <c r="O21" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="P21" t="n">
-        <v>17.5</v>
+        <v>15.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.771</v>
+        <v>0.789</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="S21" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="T21" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U21" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="V21" t="n">
-        <v>14.8</v>
+        <v>15.8</v>
       </c>
       <c r="W21" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X21" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="Y21" t="n">
         <v>4.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="AA21" t="n">
         <v>18.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>93</v>
+        <v>93.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-4.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AJ21" t="n">
         <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AL21" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AM21" t="n">
         <v>6</v>
       </c>
       <c r="AN21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,31 +4308,31 @@
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV21" t="n">
         <v>9</v>
       </c>
-      <c r="AR21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AV21" t="n">
+      <c r="AW21" t="n">
         <v>8</v>
       </c>
-      <c r="AW21" t="n">
-        <v>11</v>
-      </c>
       <c r="AX21" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AY21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ21" t="n">
         <v>22</v>
@@ -4277,7 +4344,7 @@
         <v>25</v>
       </c>
       <c r="BC21" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -4306,85 +4373,85 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.833</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
-        <v>48.8</v>
+        <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>36.3</v>
+        <v>35.4</v>
       </c>
       <c r="J22" t="n">
-        <v>83.2</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L22" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M22" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.271</v>
+        <v>0.265</v>
       </c>
       <c r="O22" t="n">
-        <v>24.8</v>
+        <v>26.2</v>
       </c>
       <c r="P22" t="n">
-        <v>29.7</v>
+        <v>31.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.837</v>
+        <v>0.84</v>
       </c>
       <c r="R22" t="n">
-        <v>12.8</v>
+        <v>12.2</v>
       </c>
       <c r="S22" t="n">
-        <v>34.2</v>
+        <v>32.6</v>
       </c>
       <c r="T22" t="n">
-        <v>47</v>
+        <v>44.8</v>
       </c>
       <c r="U22" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="V22" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="W22" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="X22" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>22.3</v>
+        <v>23</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.8</v>
+        <v>102.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4396,16 +4463,16 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AJ22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
         <v>25</v>
@@ -4414,10 +4481,10 @@
         <v>21</v>
       </c>
       <c r="AN22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP22" t="n">
         <v>3</v>
@@ -4426,40 +4493,40 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AS22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV22" t="n">
         <v>19</v>
       </c>
       <c r="AW22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC22" t="n">
         <v>9</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>11</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -4566,16 +4633,16 @@
         <v>3.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>13</v>
       </c>
       <c r="AF23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AG23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
         <v>8</v>
@@ -4584,7 +4651,7 @@
         <v>6</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK23" t="n">
         <v>10</v>
@@ -4632,16 +4699,16 @@
         <v>29</v>
       </c>
       <c r="AZ23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BB23" t="n">
         <v>14</v>
       </c>
       <c r="BC23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>-1</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF24" t="n">
         <v>7</v>
@@ -4760,13 +4827,13 @@
         <v>7</v>
       </c>
       <c r="AH24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK24" t="n">
         <v>6</v>
@@ -4775,19 +4842,19 @@
         <v>15</v>
       </c>
       <c r="AM24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN24" t="n">
         <v>17</v>
       </c>
       <c r="AO24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP24" t="n">
         <v>19</v>
       </c>
       <c r="AQ24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR24" t="n">
         <v>21</v>
@@ -4796,19 +4863,19 @@
         <v>4</v>
       </c>
       <c r="AT24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV24" t="n">
         <v>27</v>
       </c>
       <c r="AW24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY24" t="n">
         <v>17</v>
@@ -4820,10 +4887,10 @@
         <v>28</v>
       </c>
       <c r="BB24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -4852,85 +4919,85 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>0.714</v>
+        <v>0.667</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J25" t="n">
-        <v>81.40000000000001</v>
+        <v>82</v>
       </c>
       <c r="K25" t="n">
-        <v>0.465</v>
+        <v>0.461</v>
       </c>
       <c r="L25" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.36</v>
+        <v>0.366</v>
       </c>
       <c r="O25" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="P25" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.753</v>
+        <v>0.748</v>
       </c>
       <c r="R25" t="n">
         <v>10.3</v>
       </c>
       <c r="S25" t="n">
-        <v>33.7</v>
+        <v>34.3</v>
       </c>
       <c r="T25" t="n">
-        <v>44</v>
+        <v>44.7</v>
       </c>
       <c r="U25" t="n">
-        <v>18.3</v>
+        <v>19</v>
       </c>
       <c r="V25" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="W25" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X25" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.9</v>
+        <v>20.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
         <v>3</v>
@@ -4942,46 +5009,46 @@
         <v>4</v>
       </c>
       <c r="AH25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="n">
         <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>8</v>
       </c>
       <c r="AM25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>14</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>12</v>
       </c>
       <c r="AR25" t="n">
         <v>22</v>
       </c>
       <c r="AS25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT25" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AU25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV25" t="n">
         <v>25</v>
@@ -4990,16 +5057,16 @@
         <v>7</v>
       </c>
       <c r="AX25" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -5112,22 +5179,22 @@
         <v>3.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF26" t="n">
         <v>4</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ26" t="n">
         <v>7</v>
@@ -5148,13 +5215,13 @@
         <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS26" t="n">
         <v>17</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
@@ -5187,7 +5254,7 @@
         <v>9</v>
       </c>
       <c r="BC26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -5294,19 +5361,19 @@
         <v>-7.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
         <v>28</v>
       </c>
       <c r="AF27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG27" t="n">
         <v>29</v>
       </c>
       <c r="AH27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
         <v>28</v>
@@ -5315,10 +5382,10 @@
         <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM27" t="n">
         <v>14</v>
@@ -5339,7 +5406,7 @@
         <v>20</v>
       </c>
       <c r="AS27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT27" t="n">
         <v>29</v>
@@ -5351,13 +5418,13 @@
         <v>1</v>
       </c>
       <c r="AW27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ27" t="n">
         <v>25</v>
@@ -5369,7 +5436,7 @@
         <v>27</v>
       </c>
       <c r="BC27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -5398,85 +5465,85 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.857</v>
+        <v>0.833</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="J28" t="n">
-        <v>84.3</v>
+        <v>85.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.471</v>
+        <v>0.461</v>
       </c>
       <c r="L28" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="M28" t="n">
-        <v>18.9</v>
+        <v>17.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.371</v>
+        <v>0.356</v>
       </c>
       <c r="O28" t="n">
-        <v>12.7</v>
+        <v>10.5</v>
       </c>
       <c r="P28" t="n">
-        <v>17.3</v>
+        <v>15.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.736</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R28" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.4</v>
+        <v>32</v>
       </c>
       <c r="T28" t="n">
-        <v>42.3</v>
+        <v>40.8</v>
       </c>
       <c r="U28" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W28" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="X28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.7</v>
+        <v>18.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>99.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.7</v>
+        <v>2.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5488,25 +5555,25 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AK28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL28" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM28" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AN28" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,31 +5582,31 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AR28" t="n">
         <v>27</v>
       </c>
       <c r="AS28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY28" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ28" t="n">
         <v>6</v>
@@ -5548,10 +5615,10 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BC28" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>1.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>24</v>
@@ -5682,16 +5749,16 @@
         <v>20</v>
       </c>
       <c r="AL29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM29" t="n">
         <v>17</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>11</v>
@@ -5715,7 +5782,7 @@
         <v>7</v>
       </c>
       <c r="AW29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX29" t="n">
         <v>27</v>
@@ -5733,7 +5800,7 @@
         <v>21</v>
       </c>
       <c r="BC29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-13</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>30</v>
@@ -5852,7 +5919,7 @@
         <v>30</v>
       </c>
       <c r="AH30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI30" t="n">
         <v>29</v>
@@ -5867,28 +5934,28 @@
         <v>28</v>
       </c>
       <c r="AM30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN30" t="n">
         <v>30</v>
       </c>
       <c r="AO30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP30" t="n">
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR30" t="n">
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>26</v>
@@ -5900,7 +5967,7 @@
         <v>21</v>
       </c>
       <c r="AX30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY30" t="n">
         <v>19</v>
@@ -5909,7 +5976,7 @@
         <v>24</v>
       </c>
       <c r="BA30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB30" t="n">
         <v>30</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
@@ -5944,103 +6011,103 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>0.333</v>
+        <v>0.4</v>
       </c>
       <c r="H31" t="n">
-        <v>49.7</v>
+        <v>49</v>
       </c>
       <c r="I31" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="J31" t="n">
         <v>88</v>
       </c>
       <c r="K31" t="n">
-        <v>0.443</v>
+        <v>0.441</v>
       </c>
       <c r="L31" t="n">
         <v>11.8</v>
       </c>
       <c r="M31" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="O31" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="P31" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="R31" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="S31" t="n">
         <v>27.8</v>
       </c>
-      <c r="N31" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="O31" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="P31" t="n">
+      <c r="T31" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="U31" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="V31" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="W31" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="X31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Z31" t="n">
         <v>22.2</v>
       </c>
-      <c r="Q31" t="n">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="R31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="T31" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="U31" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="V31" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="W31" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="X31" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>21.7</v>
-      </c>
       <c r="AA31" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB31" t="n">
         <v>105</v>
       </c>
       <c r="AC31" t="n">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>22</v>
       </c>
       <c r="AF31" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AG31" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK31" t="n">
         <v>17</v>
@@ -6055,49 +6122,49 @@
         <v>5</v>
       </c>
       <c r="AO31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT31" t="n">
         <v>26</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>27</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>25</v>
       </c>
       <c r="AU31" t="n">
         <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AY31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA31" t="n">
         <v>19</v>
       </c>
       <c r="BB31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-10-2013-14</t>
+          <t>2013-11-10</t>
         </is>
       </c>
     </row>
